--- a/src/Palantir.Homatic.Mock/docs/params.xlsx
+++ b/src/Palantir.Homatic.Mock/docs/params.xlsx
@@ -8,24 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaept\source\palantir\src\Palantir.Homatic.Mock\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67909A85-1AEF-42B2-AF40-FDAA798E86B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{170CF7F6-6584-43B0-9EEA-209122645F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9210" yWindow="900" windowWidth="34635" windowHeight="17745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6855" yWindow="1425" windowWidth="34635" windowHeight="17745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">params!$A:$A</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="0">params!$A:$A</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="0">params!$M$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">params!$G:$G</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="0">params!$G:$G</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="0">params!$Q$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3869" uniqueCount="967">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3876" uniqueCount="967">
   <si>
     <t>INSTALL_MODE</t>
   </si>
@@ -3511,6 +3511,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:K1048576" totalsRowShown="0">
+  <autoFilter ref="A1:K1048576" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K882">
     <sortCondition ref="A1:A882"/>
   </sortState>
@@ -3828,10 +3829,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M882"/>
+  <dimension ref="A1:Q882"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A449" workbookViewId="0">
-      <selection activeCell="A467" sqref="A467"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3849,7 +3850,7 @@
     <col min="11" max="11" width="11" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>956</v>
       </c>
@@ -3886,8 +3887,11 @@
       <c r="M1" t="s">
         <v>956</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q1" s="1" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>329</v>
       </c>
@@ -3921,8 +3925,11 @@
       <c r="M2" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>329</v>
       </c>
@@ -3956,8 +3963,11 @@
       <c r="M3" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q3" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>329</v>
       </c>
@@ -3991,8 +4001,11 @@
       <c r="M4" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>329</v>
       </c>
@@ -4026,8 +4039,11 @@
       <c r="M5" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q5" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>329</v>
       </c>
@@ -4061,8 +4077,11 @@
       <c r="M6" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q6" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>329</v>
       </c>
@@ -4096,8 +4115,11 @@
       <c r="M7" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q7" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>329</v>
       </c>
@@ -4132,7 +4154,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>331</v>
       </c>
@@ -4167,7 +4189,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>331</v>
       </c>
@@ -4202,7 +4224,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>331</v>
       </c>
@@ -4237,7 +4259,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>331</v>
       </c>
@@ -4272,7 +4294,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>331</v>
       </c>
@@ -4307,7 +4329,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>331</v>
       </c>
@@ -4342,7 +4364,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>331</v>
       </c>
@@ -4377,7 +4399,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>259</v>
       </c>
